--- a/Modello/nuovi modelli/inputTesiOriginali/test4/DMU/dmu-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/DMU/dmu-1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -67,17 +67,12 @@
     <definedName name="SBM_7">ANNO1!$G$8</definedName>
     <definedName name="SBM_9">ANNO1!$G$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>soluzione1</t>
   </si>
@@ -122,13 +117,115 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>119100</t>
+  </si>
+  <si>
+    <t>0.84177</t>
+  </si>
+  <si>
+    <t>1.32026</t>
+  </si>
+  <si>
+    <t>0.732222</t>
+  </si>
+  <si>
+    <t>1.36571</t>
+  </si>
+  <si>
+    <t>0.556997</t>
+  </si>
+  <si>
+    <t>0.366111</t>
+  </si>
+  <si>
+    <t>119110</t>
+  </si>
+  <si>
+    <t>0.17437</t>
+  </si>
+  <si>
+    <t>0.488148</t>
+  </si>
+  <si>
+    <t>133126</t>
+  </si>
+  <si>
+    <t>0.68293</t>
+  </si>
+  <si>
+    <t>1.37774</t>
+  </si>
+  <si>
+    <t>0.676212</t>
+  </si>
+  <si>
+    <t>1.47883</t>
+  </si>
+  <si>
+    <t>0.491415</t>
+  </si>
+  <si>
+    <t>0.338106</t>
+  </si>
+  <si>
+    <t>0.848444</t>
+  </si>
+  <si>
+    <t>0.475216</t>
+  </si>
+  <si>
+    <t>62672</t>
+  </si>
+  <si>
+    <t>0.969343</t>
+  </si>
+  <si>
+    <t>1.06226</t>
+  </si>
+  <si>
+    <t>0.782039</t>
+  </si>
+  <si>
+    <t>1.27871</t>
+  </si>
+  <si>
+    <t>0.530619</t>
+  </si>
+  <si>
+    <t>0.39102</t>
+  </si>
+  <si>
+    <t>140762</t>
+  </si>
+  <si>
+    <t>0.96379</t>
+  </si>
+  <si>
+    <t>1.09067</t>
+  </si>
+  <si>
+    <t>0.760877</t>
+  </si>
+  <si>
+    <t>1.31427</t>
+  </si>
+  <si>
+    <t>0.587074</t>
+  </si>
+  <si>
+    <t>0.507251</t>
+  </si>
+  <si>
+    <t>119564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +262,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,26 +527,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.6640625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -480,44 +569,191 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test4/DMU/dmu-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/DMU/dmu-1.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>soluzione1</t>
   </si>
@@ -219,6 +219,27 @@
   </si>
   <si>
     <t>119564</t>
+  </si>
+  <si>
+    <t>117154</t>
+  </si>
+  <si>
+    <t>0.846025</t>
+  </si>
+  <si>
+    <t>1.3046</t>
+  </si>
+  <si>
+    <t>0.737881</t>
+  </si>
+  <si>
+    <t>1.35523</t>
+  </si>
+  <si>
+    <t>0.133201</t>
+  </si>
+  <si>
+    <t>0.491921</t>
   </si>
 </sst>
 </file>
@@ -573,187 +594,208 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="B2">
+        <v>119099.72139303482</v>
+      </c>
+      <c r="C2">
+        <v>0.84177011703340521</v>
+      </c>
+      <c r="D2">
+        <v>1.3202624382569046</v>
+      </c>
+      <c r="E2">
+        <v>0.73222193436464589</v>
+      </c>
+      <c r="F2">
+        <v>1.3657061514658215</v>
+      </c>
+      <c r="G2">
+        <v>0.55699681954120261</v>
+      </c>
+      <c r="H2">
+        <v>0.36611096718232294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+      <c r="B3">
+        <v>119109.66169154228</v>
+      </c>
+      <c r="C3">
+        <v>0.84177011703340521</v>
+      </c>
+      <c r="D3">
+        <v>1.3202624382569046</v>
+      </c>
+      <c r="E3">
+        <v>0.73222193436464589</v>
+      </c>
+      <c r="F3">
+        <v>1.3657061514658215</v>
+      </c>
+      <c r="G3">
+        <v>0.1743703985436309</v>
+      </c>
+      <c r="H3">
+        <v>0.48814795624309726</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
+      <c r="B4">
+        <v>133125.57356938627</v>
+      </c>
+      <c r="C4">
+        <v>0.6829300997245461</v>
+      </c>
+      <c r="D4">
+        <v>1.3777417040936943</v>
+      </c>
+      <c r="E4">
+        <v>0.67621203998248669</v>
+      </c>
+      <c r="F4">
+        <v>1.4788260795029606</v>
+      </c>
+      <c r="G4">
+        <v>0.4914147670197227</v>
+      </c>
+      <c r="H4">
+        <v>0.33810601999124335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
+      <c r="B5">
+        <v>119099.83736318408</v>
+      </c>
+      <c r="C5">
+        <v>0.84844370303166861</v>
+      </c>
+      <c r="D5">
+        <v>1.3202624382569046</v>
+      </c>
+      <c r="E5">
+        <v>0.732221934364646</v>
+      </c>
+      <c r="F5">
+        <v>1.3657061514658215</v>
+      </c>
+      <c r="G5">
+        <v>0.47521606999742827</v>
+      </c>
+      <c r="H5">
+        <v>0.366110967182323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
+      <c r="B6">
+        <v>62671.996306930872</v>
+      </c>
+      <c r="C6">
+        <v>0.96934268567296911</v>
+      </c>
+      <c r="D6">
+        <v>1.0622562748287174</v>
+      </c>
+      <c r="E6">
+        <v>0.7820392193902167</v>
+      </c>
+      <c r="F6">
+        <v>1.2787082478801191</v>
+      </c>
+      <c r="G6">
+        <v>0.53061906434116601</v>
+      </c>
+      <c r="H6">
+        <v>0.39101960969510835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
+      <c r="B7">
+        <v>140762.01501215599</v>
+      </c>
+      <c r="C7">
+        <v>0.9637899246066407</v>
+      </c>
+      <c r="D7">
+        <v>1.0906704504423055</v>
+      </c>
+      <c r="E7">
+        <v>0.76087681846294464</v>
+      </c>
+      <c r="F7">
+        <v>1.314273185533646</v>
+      </c>
+      <c r="G7">
+        <v>0.58707388070444155</v>
+      </c>
+      <c r="H7">
+        <v>0.5072512123086298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>117153.90588929025</v>
+      </c>
+      <c r="C8">
+        <v>0.84602455605551852</v>
+      </c>
+      <c r="D8">
+        <v>1.3046011347132023</v>
+      </c>
+      <c r="E8">
+        <v>0.73788132029281761</v>
+      </c>
+      <c r="F8">
+        <v>1.355231488450154</v>
+      </c>
+      <c r="G8">
+        <v>0.13320108706051376</v>
+      </c>
+      <c r="H8">
+        <v>0.4919208801952118</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
+      <c r="B9">
+        <v>119563.60199004975</v>
+      </c>
+      <c r="C9">
+        <v>0.84177011703340521</v>
+      </c>
+      <c r="D9">
+        <v>1.3202624382569046</v>
+      </c>
+      <c r="E9">
+        <v>0.73222193436464589</v>
+      </c>
+      <c r="F9">
+        <v>1.3657061514658215</v>
+      </c>
+      <c r="G9">
+        <v>0.58707388070444155</v>
+      </c>
+      <c r="H9">
+        <v>0.48814795624309726</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test4/DMU/dmu-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/DMU/dmu-1.xlsx
@@ -613,7 +613,7 @@
         <v>0.55699681954120261</v>
       </c>
       <c r="H2">
-        <v>0.36611096718232294</v>
+        <v>0.73222193436464589</v>
       </c>
     </row>
     <row r="3">
@@ -639,7 +639,7 @@
         <v>0.1743703985436309</v>
       </c>
       <c r="H3">
-        <v>0.48814795624309726</v>
+        <v>0.73222193436464589</v>
       </c>
     </row>
     <row r="4">
@@ -665,7 +665,7 @@
         <v>0.4914147670197227</v>
       </c>
       <c r="H4">
-        <v>0.33810601999124335</v>
+        <v>0.67621203998248669</v>
       </c>
     </row>
     <row r="5">
@@ -691,7 +691,7 @@
         <v>0.47521606999742827</v>
       </c>
       <c r="H5">
-        <v>0.366110967182323</v>
+        <v>0.732221934364646</v>
       </c>
     </row>
     <row r="6">
@@ -717,7 +717,7 @@
         <v>0.53061906434116601</v>
       </c>
       <c r="H6">
-        <v>0.39101960969510835</v>
+        <v>0.7820392193902167</v>
       </c>
     </row>
     <row r="7">
@@ -743,7 +743,7 @@
         <v>0.58707388070444155</v>
       </c>
       <c r="H7">
-        <v>0.5072512123086298</v>
+        <v>0.76087681846294464</v>
       </c>
     </row>
     <row r="8">
@@ -769,7 +769,7 @@
         <v>0.13320108706051376</v>
       </c>
       <c r="H8">
-        <v>0.4919208801952118</v>
+        <v>0.73788132029281761</v>
       </c>
     </row>
     <row r="9">
@@ -795,7 +795,7 @@
         <v>0.58707388070444155</v>
       </c>
       <c r="H9">
-        <v>0.48814795624309726</v>
+        <v>0.73222193436464589</v>
       </c>
     </row>
   </sheetData>
